--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H2">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N2">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q2">
-        <v>442.5992584799823</v>
+        <v>0.007546510591999998</v>
       </c>
       <c r="R2">
-        <v>3983.39332631984</v>
+        <v>0.06791859532799999</v>
       </c>
       <c r="S2">
-        <v>0.8187116530294576</v>
+        <v>0.02678040206851348</v>
       </c>
       <c r="T2">
-        <v>0.8187116530294576</v>
+        <v>0.02678040206851348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H3">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.510969</v>
       </c>
       <c r="O3">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P3">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q3">
-        <v>0.8978826752066668</v>
+        <v>0.04368353465066666</v>
       </c>
       <c r="R3">
-        <v>8.080944076860002</v>
+        <v>0.393151811856</v>
       </c>
       <c r="S3">
-        <v>0.001660886219668642</v>
+        <v>0.15502033787097</v>
       </c>
       <c r="T3">
-        <v>0.001660886219668642</v>
+        <v>0.1550203378709701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>3.256445</v>
       </c>
       <c r="I4">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J4">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N4">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q4">
-        <v>91.13535317116889</v>
+        <v>0.03193921255999999</v>
       </c>
       <c r="R4">
-        <v>820.2181785405198</v>
+        <v>0.2874529130399999</v>
       </c>
       <c r="S4">
-        <v>0.1685804352687719</v>
+        <v>0.1133431065498352</v>
       </c>
       <c r="T4">
-        <v>0.1685804352687719</v>
+        <v>0.1133431065498352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.256445</v>
       </c>
       <c r="I5">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J5">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>0.510969</v>
       </c>
       <c r="O5">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P5">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q5">
         <v>0.1848824939116667</v>
@@ -756,10 +756,10 @@
         <v>1.663942445205</v>
       </c>
       <c r="S5">
-        <v>0.0003419921052883444</v>
+        <v>0.6560949543531669</v>
       </c>
       <c r="T5">
-        <v>0.0003419921052883445</v>
+        <v>0.6560949543531669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H6">
         <v>0.206369</v>
       </c>
       <c r="I6">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J6">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N6">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q6">
-        <v>5.775473468331554</v>
+        <v>0.002024067151999999</v>
       </c>
       <c r="R6">
-        <v>51.97926121498399</v>
+        <v>0.018216604368</v>
       </c>
       <c r="S6">
-        <v>0.0106833604885024</v>
+        <v>0.007182833904943256</v>
       </c>
       <c r="T6">
-        <v>0.0106833604885024</v>
+        <v>0.007182833904943256</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H7">
         <v>0.206369</v>
       </c>
       <c r="I7">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J7">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>0.510969</v>
       </c>
       <c r="O7">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P7">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q7">
-        <v>0.01171646239566666</v>
+        <v>0.01171646239566667</v>
       </c>
       <c r="R7">
         <v>0.105448161561</v>
       </c>
       <c r="S7">
-        <v>2.167288831110316E-05</v>
+        <v>0.04157836525257104</v>
       </c>
       <c r="T7">
-        <v>2.167288831110316E-05</v>
+        <v>0.04157836525257104</v>
       </c>
     </row>
   </sheetData>
